--- a/src/main/resources/websheet/chartbars3d.xlsx
+++ b/src/main/resources/websheet/chartbars3d.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28716" windowHeight="13080"/>
+    <workbookView windowWidth="19500" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>JASON</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">tie:form(name="Sheet1" length="42" headerLength="0" footerLength="0" fixedWidthStyle="true")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>Month</t>
   </si>
@@ -43,22 +66,27 @@
     <t>May</t>
   </si>
   <si>
-    <t>Stacked:</t>
+    <t>Clustered:</t>
   </si>
   <si>
-    <t>Clustered:</t>
+    <t>Stacked:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -66,18 +94,355 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -85,49 +450,327 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -138,25 +781,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -175,6 +803,9 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -238,6 +869,9 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -301,6 +935,9 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -358,11 +995,9 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
         <c:axId val="107222144"/>
         <c:axId val="107223680"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="107222144"/>
         <c:scaling>
@@ -373,6 +1008,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="107223680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -392,20 +1043,70 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="107222144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -417,7 +1118,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -428,25 +1129,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -465,6 +1151,9 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -528,6 +1217,9 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -591,6 +1283,9 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$6</c:f>
@@ -648,11 +1343,10 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
+        <c:overlap val="100"/>
         <c:axId val="107270528"/>
         <c:axId val="107272064"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="107270528"/>
         <c:scaling>
@@ -663,6 +1357,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="107272064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -682,20 +1392,70 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="107270528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -705,7 +1465,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -719,14 +1479,14 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="236220" y="1478280"/>
+        <a:ext cx="4473575" cy="2857500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -749,14 +1509,14 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="205740" y="4667250"/>
+        <a:ext cx="4473575" cy="2857500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -815,71 +1575,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1092,27 +1852,27 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.1047619047619" customWidth="1"/>
+    <col min="4" max="4" width="31.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1942,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1196,248 +1956,249 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="I8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
-        <v>9</v>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A8:D23"/>
     <mergeCell ref="A25:D41"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>